--- a/proje_olusturma_notlar/Proje Olusturma Adimlar.xlsx
+++ b/proje_olusturma_notlar/Proje Olusturma Adimlar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Yazilim Isleri\2- Java Full-Stack\spring\proje_olusturma_notlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29636C7C-EEC1-402B-A0C4-DBAA96974218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94228DD-BBA2-405D-91DC-F28A2A156852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11790" firstSheet="1" activeTab="4" xr2:uid="{B87F3FB9-6550-42A8-982A-767588DB9631}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Prject Packages" sheetId="2" r:id="rId3"/>
     <sheet name="Class and Interfaces" sheetId="6" r:id="rId4"/>
     <sheet name="Annotations" sheetId="4" r:id="rId5"/>
+    <sheet name="Controller" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>1-</t>
   </si>
@@ -217,30 +218,6 @@
     <t>yapinca start stop otomatik</t>
   </si>
   <si>
-    <t>server.port=8081</t>
-  </si>
-  <si>
-    <t>spring.datasource.url=jdbc:mysql://localhost:3306/springboot</t>
-  </si>
-  <si>
-    <t>spring.datasource.username=root</t>
-  </si>
-  <si>
-    <t>spring.datasource.password=1234</t>
-  </si>
-  <si>
-    <t>spring.datasource.driver-class-name=com.mysql.cj.jdbc.Driver</t>
-  </si>
-  <si>
-    <t>spring.jpa.hibernate.ddl-auto=update</t>
-  </si>
-  <si>
-    <t>spring.jpa.show-sql=true</t>
-  </si>
-  <si>
-    <t>spring.jpa.properties.hibernate.format_sql=true</t>
-  </si>
-  <si>
     <t>src/main/resources</t>
   </si>
   <si>
@@ -407,13 +384,426 @@
   </si>
   <si>
     <t>StudentServiceImpl Class in uzeri</t>
+  </si>
+  <si>
+    <t>@Getter</t>
+  </si>
+  <si>
+    <t>@Setter</t>
+  </si>
+  <si>
+    <t>@AllArgsConstructor</t>
+  </si>
+  <si>
+    <t>@NoArgsConstructor</t>
+  </si>
+  <si>
+    <t>@NotNull(message = "First Name can not be Null")</t>
+  </si>
+  <si>
+    <t>@NotBlank(message = "First Name can not be white space")</t>
+  </si>
+  <si>
+    <t>@Size(min = 1,max = 100, message = "First name '${validatedValue}' must be between {min} and {max} chars long")</t>
+  </si>
+  <si>
+    <t>@Column(length = 100, nullable = false)</t>
+  </si>
+  <si>
+    <t>@Email(message = "Provide valid email ")</t>
+  </si>
+  <si>
+    <t>@Pattern(regexp = "^((\\(\\d{3}\\))|\\d{3})[- .]?\\d{3}[- .]?\\d{4}$", message = "Please provide valid phone number")</t>
+  </si>
+  <si>
+    <t>@PostMapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelen objeyi kontrol edecek, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Valid </t>
+  </si>
+  <si>
+    <t>@RequestBody</t>
+  </si>
+  <si>
+    <t>@GetMapping</t>
+  </si>
+  <si>
+    <t>@ResponseStatus(HttpStatus.CONFLICT)</t>
+  </si>
+  <si>
+    <t>@ResponseStatus(HttpStatus.NOT_FOUND)</t>
+  </si>
+  <si>
+    <t>@DeleteMapping("/{id}")</t>
+  </si>
+  <si>
+    <t>@GetMapping("/query")</t>
+  </si>
+  <si>
+    <t>@GetMapping("/{id}")</t>
+  </si>
+  <si>
+    <t>https://projectlombok.org/p2</t>
+  </si>
+  <si>
+    <t>Argumanli constructor, web den parametreli obje olusturmak</t>
+  </si>
+  <si>
+    <t>Argumansiz constructor, default constructor gibi</t>
+  </si>
+  <si>
+    <t>İhtitaçlara göre yazıyoruz. Senaryoyu oluşturuyoruz, Student in getAll, güncelleme, update, delete</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>Student içindeki variable lari oluşturuyoruz.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>ResponseEntity&lt;Map&lt;String,String&gt;&gt; createStudent(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">@Valid @RequestBody </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Student student){</t>
+    </r>
+  </si>
+  <si>
+    <t>Map&lt;String,String&gt;</t>
+  </si>
+  <si>
+    <t>1. String : mesaj</t>
+  </si>
+  <si>
+    <t>2. String : status</t>
+  </si>
+  <si>
+    <r>
+      <t>server.port</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>8085</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>server.error.include-message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>always</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>server.error.include-binding-errors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>always</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>server.error.include-stacktrace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>never</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring.datasource.url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>jdbc:mysql://localhost:3306/springboot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring.datasource.username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>root</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring.datasource.password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1234</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring.datasource.driver-class-name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>com.mysql.cj.jdbc.Driver</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring.jpa.hibernate.ddl-auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>update</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring.jpa.show-sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>spring.jpa.properties.hibernate.format_sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+  </si>
+  <si>
+    <t>lombok.Getter</t>
+  </si>
+  <si>
+    <t>lombok.Setter</t>
+  </si>
+  <si>
+    <t>lombok.AllArgsConstructor</t>
+  </si>
+  <si>
+    <t>lombok.NoArgsConstructor</t>
+  </si>
+  <si>
+    <t>Student Class in en uzerine</t>
+  </si>
+  <si>
+    <t>Dışarıdan obje ile bu class in getter larina erisebilmek icin</t>
+  </si>
+  <si>
+    <t>Dışarıdan obje ile bu class in setter larina erisebilmek icin</t>
+  </si>
+  <si>
+    <t>Kod yazma zamaninda class icinde kod kalabaligini onluyor. Compile edilmiş durumda getter setter ve constructor lar var aa source kısmında görünmüyor</t>
+  </si>
+  <si>
+    <t>(Plugin) Help -&gt; install software</t>
+  </si>
+  <si>
+    <t>STS4: (lombom plugin)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,8 +825,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF008000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +897,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -483,10 +913,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -511,10 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,8 +951,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -838,29 +1286,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA123DA-0E07-4D15-B95A-D66C8148C7CF}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" ht="9" customHeight="1"/>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -871,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -879,8 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -888,7 +1335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -896,7 +1343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -904,7 +1351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -912,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -920,7 +1367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -928,7 +1375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -936,7 +1383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -944,8 +1391,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="6.75" customHeight="1"/>
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -953,8 +1400,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="9" customHeight="1"/>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -965,7 +1412,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -973,7 +1420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="C19" t="s">
         <v>51</v>
       </c>
@@ -981,7 +1428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4">
       <c r="C20" t="s">
         <v>47</v>
       </c>
@@ -989,7 +1436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4">
       <c r="C21" t="s">
         <v>48</v>
       </c>
@@ -997,7 +1444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4">
       <c r="C22" t="s">
         <v>49</v>
       </c>
@@ -1005,7 +1452,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -1013,123 +1460,165 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4">
       <c r="D24" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{9C0F14B3-A953-45C0-848B-9C96C9F34513}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62B123E-24EE-4C0D-A002-560568C44D82}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A10" sqref="A10:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2"/>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="17" x14ac:dyDescent="0.25"/>
-    <row r="18" x14ac:dyDescent="0.25"/>
-    <row r="19" x14ac:dyDescent="0.25"/>
-    <row r="20" x14ac:dyDescent="0.25"/>
+      <c r="B12" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1630,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
@@ -1151,8 +1640,8 @@
     <col min="6" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4"/>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1174,69 +1663,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4"/>
+    <row r="14" spans="1:4"/>
+    <row r="15" spans="1:4"/>
+    <row r="16" spans="1:4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1244,13 +1733,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57238B4-FED3-4FCF-8D77-E483CF8B1216}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1261,35 +1750,32 @@
     <col min="7" max="7" width="37" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -1297,10 +1783,10 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1314,106 +1800,119 @@
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="17" x14ac:dyDescent="0.25"/>
-    <row r="18" x14ac:dyDescent="0.25"/>
-    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1421,13 +1920,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E1DF42-4186-42F4-ACD1-E27139A37638}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
@@ -1437,58 +1937,59 @@
     <col min="6" max="6" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="89" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
+      <c r="C1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1506,13 +2007,13 @@
         <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1524,19 +2025,19 @@
         <v>35</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" hidden="1">
       <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>24</v>
@@ -1555,7 +2056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>24</v>
@@ -1571,13 +2072,13 @@
         <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>24</v>
@@ -1587,19 +2088,19 @@
         <v>35</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>24</v>
@@ -1609,134 +2110,326 @@
         <v>35</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="C12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="C13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="3:13" ht="15" customHeight="1">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="3:13" ht="15" customHeight="1">
+      <c r="I18" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="15" customHeight="1">
+      <c r="I19" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="15" customHeight="1">
+      <c r="I20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="21" spans="3:13" ht="15" customHeight="1">
+      <c r="I21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="22" spans="3:13" ht="15" customHeight="1">
+      <c r="I22" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15" customHeight="1">
+      <c r="I23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="15" customHeight="1">
+      <c r="I24" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15" customHeight="1">
+      <c r="I25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15" customHeight="1">
+      <c r="I26" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15" customHeight="1">
+      <c r="I27" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15" customHeight="1">
+      <c r="I28" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15" customHeight="1">
+      <c r="I29" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="15" customHeight="1">
+      <c r="I30" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15" customHeight="1">
+      <c r="I31" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15" customHeight="1">
+      <c r="I32" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:H1"/>
+    <mergeCell ref="M14:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A265A7-E135-4D70-AD6C-BD16B8E26018}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>